--- a/ProjetoSmarthis/Data/Output/DataRio.xlsx
+++ b/ProjetoSmarthis/Data/Output/DataRio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Documents\GitHub\UiPath\ProjetoSmarthis\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CB6AE0-CEAD-4953-B18B-AE072E9E0882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79392CB-7408-415F-8D33-49ABE4840469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="855" windowWidth="15375" windowHeight="7875" xr2:uid="{9078195D-EBE5-4819-8ADE-D4B1A04E02E2}"/>
+    <workbookView xWindow="5115" yWindow="855" windowWidth="15375" windowHeight="7875" xr2:uid="{BDBA0578-7BDD-4FDB-8C42-1619E996D3A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>Nome_Estação</t>
-  </si>
-  <si>
-    <t>Poluente</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Nome_Estação e Poluente</t>
   </si>
   <si>
     <t>Mínimo</t>
@@ -444,14 +441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85AB3D60-66F9-47C2-ABD8-3730A62B9951}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8000C0B6-F536-4BFE-B971-5C9762BB76AE}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,217 +458,169 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>58</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>34</v>
-      </c>
-      <c r="D3">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4">
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
         <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>30</v>
-      </c>
-      <c r="D8">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>30</v>
-      </c>
-      <c r="D9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="C14">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B15">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C15">
-        <v>29</v>
-      </c>
-      <c r="D15">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
+      <c r="B16">
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>25</v>
-      </c>
-      <c r="D16">
         <v>53</v>
       </c>
     </row>
@@ -681,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBDE7389-4D19-4F7F-B9BC-B1B0A16AA895}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E2720D-202A-4967-883A-10EF47E54947}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/ProjetoSmarthis/Data/Output/DataRio.xlsx
+++ b/ProjetoSmarthis/Data/Output/DataRio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eduar\Documents\GitHub\UiPath\ProjetoSmarthis\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79392CB-7408-415F-8D33-49ABE4840469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ED88DB-EAFF-42B2-B6ED-15554CD7D88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="855" windowWidth="15375" windowHeight="7875" xr2:uid="{BDBA0578-7BDD-4FDB-8C42-1619E996D3A5}"/>
+    <workbookView xWindow="3630" yWindow="1650" windowWidth="15375" windowHeight="7875" xr2:uid="{3F32481C-A514-4FB6-BD44-882C27806E3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -441,7 +441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8000C0B6-F536-4BFE-B971-5C9762BB76AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1607F68A-71FE-4699-BEB6-4613273FECBD}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -630,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E2720D-202A-4967-883A-10EF47E54947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED06CE07-2977-42EE-98B6-17F123994797}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
